--- a/dynamic-excel-project/dynamic-excel/src/main/resources/excel/list/template1.xlsx
+++ b/dynamic-excel-project/dynamic-excel/src/main/resources/excel/list/template1.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Projects\Java\Application\dynamic-excel\dynamic-excel-project\dynamic-excel\src\main\resources\excel\list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C168A294-A8C9-437F-87A0-81637AC6065E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106EFFC3-2075-477B-9418-6AD76B359509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33210" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{268615D9-CE3C-46BE-9E21-05C42FC0F71A}"/>
+    <workbookView xWindow="32940" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{268615D9-CE3C-46BE-9E21-05C42FC0F71A}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="family">テンプレート!$L$5</definedName>
-    <definedName name="genus">テンプレート!$N$5</definedName>
-    <definedName name="ID">テンプレート!$A$5</definedName>
-    <definedName name="issueDate">テンプレート!$N$1</definedName>
-    <definedName name="issuer">テンプレート!$N$2</definedName>
-    <definedName name="kanjiName">テンプレート!$B$5</definedName>
-    <definedName name="name">テンプレート!$F$5</definedName>
-    <definedName name="order">テンプレート!$J$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">テンプレート!$A$1:$P$6</definedName>
+    <definedName name="family">テンプレート!$M$6</definedName>
+    <definedName name="genus">テンプレート!$O$6</definedName>
+    <definedName name="ID">テンプレート!$B$6</definedName>
+    <definedName name="issueDate">テンプレート!$O$2</definedName>
+    <definedName name="issuer">テンプレート!$O$3</definedName>
+    <definedName name="kanjiName">テンプレート!$C$6</definedName>
+    <definedName name="name">テンプレート!$G$6</definedName>
+    <definedName name="order">テンプレート!$K$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">テンプレート!$A$1:$Q$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -211,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -234,101 +234,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,36 +256,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,9 +278,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,135 +594,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B832A4C-14FE-4C97-8BB2-0DB7A68C2D7C}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="B2:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="1" max="15" width="9" style="1"/>
+    <col min="16" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="2" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="12" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12" t="s">
+    <row r="3" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+    <row r="4" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18" t="s">
+      <c r="L5" s="11"/>
+      <c r="M5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="5" t="s">
+      <c r="N5" s="12"/>
+      <c r="O5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="P5" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>